--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T16:43:48+00:00</t>
+    <t>2025-06-24T14:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T14:45:36+00:00</t>
+    <t>2025-07-10T12:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:49:13+00:00</t>
+    <t>2025-07-10T12:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:56:07+00:00</t>
+    <t>2025-07-16T12:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T12:56:21+00:00</t>
+    <t>2025-07-16T13:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:01:07+00:00</t>
+    <t>2025-07-16T13:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:11:18+00:00</t>
+    <t>2025-07-17T09:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/cp-consultation-offre/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:22:14+00:00</t>
+    <t>2025-07-17T09:23:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
